--- a/тз/тз_20.12.2024_Фестиваль рок-музыки.xlsx
+++ b/тз/тз_20.12.2024_Фестиваль рок-музыки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotel\OneDrive\Рабочий стол\ГУАП\курсовая чернышев\тз\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AB51F9-A475-48C0-8B78-9E76DE573642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB04B1D-A368-42D6-8ACF-0B7072BD0267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="2130" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Техничекое задание на мероприятие</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>00:00</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>очно</t>
   </si>
 </sst>
 </file>
@@ -155,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -172,11 +178,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,15 +482,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -522,7 +531,7 @@
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="1"/>
@@ -533,53 +542,49 @@
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1"/>
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -587,82 +592,97 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="3" t="s">
-        <v>20</v>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="D21" s="1"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
